--- a/notebooks/COL6A3/input/COL6A3_BTHLM1C_individuals.xlsx
+++ b/notebooks/COL6A3/input/COL6A3_BTHLM1C_individuals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/COL6A3/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4FF876-4E8A-B345-BC66-16F1172B8769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A817BDB-B6F8-A94E-AC6A-3CA55825E61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16920" yWindow="3180" windowWidth="27540" windowHeight="7600" xr2:uid="{C9BC8CA2-B138-304D-90EE-DB20FDB9237E}"/>
+    <workbookView xWindow="11680" yWindow="3620" windowWidth="27540" windowHeight="7600" xr2:uid="{C9BC8CA2-B138-304D-90EE-DB20FDB9237E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="121">
   <si>
     <t>PMID</t>
   </si>
@@ -353,9 +353,6 @@
     <t>HP:0002804</t>
   </si>
   <si>
-    <t>Infantile onset</t>
-  </si>
-  <si>
     <t>observed</t>
   </si>
   <si>
@@ -395,13 +392,10 @@
     <t>HP:0002808</t>
   </si>
   <si>
-    <t>Patient BM2</t>
+    <t>patient BM5</t>
   </si>
   <si>
     <t>c.5177T&gt;G</t>
-  </si>
-  <si>
-    <t>L1726R</t>
   </si>
   <si>
     <t>P20Y</t>
@@ -814,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960A4A7C-A2E0-6149-9B98-D38D48522163}">
   <dimension ref="A1:BB4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="AU4" sqref="AU4"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="BB4" sqref="BB4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -921,7 +915,7 @@
         <v>32</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AI1" s="1" t="s">
         <v>33</v>
@@ -969,19 +963,19 @@
         <v>103</v>
       </c>
       <c r="AX1" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AY1" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AZ1" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BA1" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BB1" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.2">
@@ -1085,7 +1079,7 @@
         <v>69</v>
       </c>
       <c r="AH2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AI2" t="s">
         <v>70</v>
@@ -1133,19 +1127,19 @@
         <v>104</v>
       </c>
       <c r="AX2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AY2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AZ2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BA2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BB2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.2">
@@ -1311,7 +1305,7 @@
         <v>101</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E4" t="s">
         <v>98</v>
@@ -1329,19 +1323,16 @@
         <v>102</v>
       </c>
       <c r="J4" t="s">
+        <v>119</v>
+      </c>
+      <c r="K4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" t="s">
         <v>120</v>
-      </c>
-      <c r="K4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4" t="s">
-        <v>121</v>
-      </c>
-      <c r="M4" t="s">
-        <v>105</v>
-      </c>
-      <c r="N4" t="s">
-        <v>122</v>
       </c>
       <c r="O4" t="s">
         <v>85</v>
@@ -1356,16 +1347,16 @@
         <v>53</v>
       </c>
       <c r="AF4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AG4" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="AH4" t="s">
         <v>87</v>
       </c>
       <c r="AN4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AO4" t="s">
         <v>53</v>
@@ -1386,19 +1377,19 @@
         <v>87</v>
       </c>
       <c r="AU4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AW4" t="s">
         <v>87</v>
       </c>
       <c r="AX4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AY4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AZ4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BA4" t="s">
         <v>87</v>
